--- a/dados_vencedores_homologados_bll_compras.xlsx
+++ b/dados_vencedores_homologados_bll_compras.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A7"/>
+  <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,42 +443,28 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>80.317.191/0001-59</t>
+          <t>91.525.790/0001-84</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>05.340.639/0001-30</t>
+          <t>49.849.034/0001-44</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>04.531.097/0001-10</t>
+          <t>54.697.232/0001-70</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>31.918.539/0001-58</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>42.468.977/0001-88</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>49.577.189/0001-79</t>
+          <t>52.314.252/0001-99</t>
         </is>
       </c>
     </row>

--- a/dados_vencedores_homologados_bll_compras.xlsx
+++ b/dados_vencedores_homologados_bll_compras.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,7 +451,237 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>27.603.662/0001-02</t>
+          <t>51.685.563/0001-00</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>35.499.192/0001-07</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>20.871.982/0001-02</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>22.077.561/0001-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>03.094.629/0001-36</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>18.065.260/0001-00</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>23.811.629/0001-17</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>00.820.854/0001-14</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>28.405.669/0001-82</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>33.253.106/0001-56</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>51.499.082/0001-00</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>02.789.130/0001-80</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>34.406.070/0001-66</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>32.175.503/0001-94</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>46.889.909/0001-43</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>32.264.944/0001-62</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>13.145.422/0001-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>01.692.763/0001-03</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>50.665.210/0001-77</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>29.421.808/0001-24</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>06.541.298/0001-23</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>33.431.712/0001-14</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>46.564.389/0001-07</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>38.484.211/0001-10</t>
         </is>
       </c>
     </row>
